--- a/17. Análise dos Eventos para cada Cenário.xlsx
+++ b/17. Análise dos Eventos para cada Cenário.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
   <si>
     <t>Externo</t>
   </si>
@@ -108,9 +108,6 @@
     <t>X(2)</t>
   </si>
   <si>
-    <t>X(3)</t>
-  </si>
-  <si>
     <t>X(5)</t>
   </si>
   <si>
@@ -126,36 +123,12 @@
     <t>Criar ordem de pedido</t>
   </si>
   <si>
-    <t>Cliente tira dúvidas</t>
-  </si>
-  <si>
     <t>Cliente solicita pedido</t>
   </si>
   <si>
-    <t>Cliente fornece telefone</t>
-  </si>
-  <si>
-    <t>Cliente realiza cadastro</t>
-  </si>
-  <si>
-    <t>Cliente escolhe método de pagamento</t>
-  </si>
-  <si>
     <t>Receber o pagamento</t>
   </si>
   <si>
-    <t>Cliente tira dúvidas do pagamento</t>
-  </si>
-  <si>
-    <t>Cliente efetua pagamento com cartão</t>
-  </si>
-  <si>
-    <t>Cliente efetua pagamento em dinheiro</t>
-  </si>
-  <si>
-    <t>Motoboy solicita detalhes do pagamento</t>
-  </si>
-  <si>
     <t>Mostrar o andamento do pedido</t>
   </si>
   <si>
@@ -165,88 +138,103 @@
     <t>Garantir o cancelamento de acordo com as regras do negócio</t>
   </si>
   <si>
-    <t>Cliente solicita cancelamento</t>
-  </si>
-  <si>
-    <t>Cliente efetua cancelamento</t>
-  </si>
-  <si>
     <t>Operadora do cartão efetua o estorno</t>
   </si>
   <si>
-    <t>Obter informações do envio</t>
-  </si>
-  <si>
-    <t>Cliente fornece detalhes do cliente</t>
-  </si>
-  <si>
-    <t>Cliente fornece detalhes de entrega</t>
-  </si>
-  <si>
-    <t>Motoboy inicia processo de entrega</t>
-  </si>
-  <si>
     <t>Garantir entrega</t>
   </si>
   <si>
-    <t>Motoboy confirma detalhes do pedido + entrega</t>
-  </si>
-  <si>
-    <t>Motoboy realiza o envio do pedido</t>
-  </si>
-  <si>
     <t>Receber feedback sobre o serviço</t>
   </si>
   <si>
-    <t>Cliente realiza o feedback</t>
-  </si>
-  <si>
-    <t>Cliente não realiza o feedback</t>
-  </si>
-  <si>
-    <t>Hamburgueria realiza analise</t>
-  </si>
-  <si>
-    <t>Hamburgueria verifica cadastro</t>
-  </si>
-  <si>
-    <t>Hamburgueria informa ordem do pedido</t>
-  </si>
-  <si>
     <t>X(6)</t>
   </si>
   <si>
-    <t>Hamburgueria valida pagamento</t>
-  </si>
-  <si>
-    <t>Hamburgueria entrega nota + comprovante do cartão</t>
-  </si>
-  <si>
-    <t>Hamburgueria entrega nota + troco</t>
-  </si>
-  <si>
-    <t>Hamburgueria valida o cancelamento</t>
-  </si>
-  <si>
-    <t>Operadora do cartão informa cancelamento do pedido + estorno</t>
-  </si>
-  <si>
-    <t>Hamburgueria não valida o cancelamento</t>
-  </si>
-  <si>
-    <t>Hamburgueria confirma dados de entrega</t>
-  </si>
-  <si>
-    <t>Motoboy recebe confirmação dos detalhes do pedido + entrega</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cliente recebe o pedido </t>
   </si>
   <si>
-    <t>Hamburgueria verifica método de pagamento</t>
-  </si>
-  <si>
     <t>Hamburgueria envia solicitação de feedback</t>
+  </si>
+  <si>
+    <t>Cliente fornece informações do cadastro</t>
+  </si>
+  <si>
+    <t>Cliente realiza o pedido</t>
+  </si>
+  <si>
+    <t>Cliente é informado dos métodos de pagamento</t>
+  </si>
+  <si>
+    <t>Hamburgueria cria a ordem de pedido</t>
+  </si>
+  <si>
+    <t>Cliente realiza pagamento pelo aplicativo</t>
+  </si>
+  <si>
+    <t>Operadora do cartão aprova o pagamento</t>
+  </si>
+  <si>
+    <t>Operadora do cartão não aprova o pagamento</t>
+  </si>
+  <si>
+    <t>Cliente escolhe fazer pagamento na entrega</t>
+  </si>
+  <si>
+    <t>Cliente envia solicitação de cancelamento</t>
+  </si>
+  <si>
+    <t>Hamburgueria efetua o cancelamento</t>
+  </si>
+  <si>
+    <t>Hamburgueria contata operadora do cartão</t>
+  </si>
+  <si>
+    <t>Motoboy solicita as informações de envio</t>
+  </si>
+  <si>
+    <t>Cliente recebe o pedido e efetua o pagamento</t>
+  </si>
+  <si>
+    <t>X(7)</t>
+  </si>
+  <si>
+    <t>X(8)</t>
+  </si>
+  <si>
+    <t>X(12)</t>
+  </si>
+  <si>
+    <t>X(13)</t>
+  </si>
+  <si>
+    <t>Motoboy realiza o envio</t>
+  </si>
+  <si>
+    <t>X(14)</t>
+  </si>
+  <si>
+    <t>X(16)</t>
+  </si>
+  <si>
+    <t>X(17)</t>
+  </si>
+  <si>
+    <t>X(10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamburgueria verifica se o pedido já foi entregue </t>
+  </si>
+  <si>
+    <t>Cliente decide se realiza o feedback</t>
+  </si>
+  <si>
+    <t>X(20)</t>
+  </si>
+  <si>
+    <t>X(21)</t>
+  </si>
+  <si>
+    <t>Cliente envia dúvidas do produto</t>
   </si>
 </sst>
 </file>
@@ -326,7 +314,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -488,21 +476,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -530,21 +503,6 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -554,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -598,40 +556,40 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -640,21 +598,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -664,7 +613,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -987,16 +939,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="53.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="15" customWidth="1"/>
     <col min="3" max="3" width="3.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="57.5703125" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -1008,25 +960,25 @@
   <sheetData>
     <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="20" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="20" t="s">
+      <c r="F1" s="19"/>
+      <c r="G1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="21"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="19"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1049,21 +1001,21 @@
         <v>9</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="25" t="s">
+      <c r="A3" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="13" t="s">
@@ -1075,716 +1027,423 @@
       <c r="J3" s="10"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="26"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="6">
         <v>2</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="13" t="s">
-        <v>12</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="13"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="10"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="26"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="6">
         <v>3</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="13"/>
+        <v>56</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="F5" s="13"/>
-      <c r="G5" s="14" t="s">
-        <v>13</v>
-      </c>
+      <c r="G5" s="14"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="10"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
-      <c r="B6" s="26"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="6">
         <v>4</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="10"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="26"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="6">
         <v>5</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>16</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E7" s="13"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="9"/>
+      <c r="G7" s="14" t="s">
+        <v>15</v>
+      </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="26"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="6">
         <v>6</v>
       </c>
-      <c r="D8" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="13"/>
+      <c r="D8" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="F8" s="8"/>
-      <c r="G8" s="14" t="s">
-        <v>13</v>
-      </c>
+      <c r="G8" s="14"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="26"/>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="C9" s="6">
         <v>7</v>
       </c>
-      <c r="D9" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="14"/>
+      <c r="D9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="17" t="s">
-        <v>11</v>
-      </c>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="28"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="6">
         <v>8</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E10" s="13"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="14" t="s">
+        <v>43</v>
+      </c>
       <c r="H10" s="9"/>
-      <c r="I10" s="14" t="s">
-        <v>16</v>
-      </c>
+      <c r="I10" s="9"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>10</v>
+    <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="28"/>
+      <c r="B11" s="25" t="s">
+        <v>11</v>
       </c>
       <c r="C11" s="6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E11" s="8"/>
-      <c r="F11" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="9"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14"/>
       <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+      <c r="I11" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="J11" s="10"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="28"/>
-      <c r="B12" s="30"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="6">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13" t="s">
-        <v>18</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="13"/>
       <c r="G12" s="14"/>
       <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
+      <c r="I12" s="14" t="s">
+        <v>43</v>
+      </c>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="30"/>
+    <row r="13" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="C13" s="6">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14" t="s">
-        <v>13</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="10"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="30"/>
+      <c r="A14" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>10</v>
+      </c>
       <c r="C14" s="6">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="14" t="s">
-        <v>13</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="30"/>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="30"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="6">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="14"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="29" t="s">
-        <v>11</v>
-      </c>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="30"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="6">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="8"/>
+        <v>40</v>
+      </c>
+      <c r="E16" s="13"/>
       <c r="F16" s="13"/>
-      <c r="G16" s="14"/>
+      <c r="G16" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="H16" s="9"/>
-      <c r="I16" s="14" t="s">
-        <v>13</v>
-      </c>
+      <c r="I16" s="9"/>
       <c r="J16" s="10"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="37"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="6">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="8"/>
+        <v>24</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>48</v>
+      </c>
       <c r="F17" s="13"/>
       <c r="G17" s="14"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="14" t="s">
-        <v>13</v>
-      </c>
+      <c r="I17" s="9"/>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="12" t="s">
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="25" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="6">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="9"/>
+        <v>41</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="14"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="10"/>
     </row>
-    <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="15" t="s">
-        <v>11</v>
-      </c>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="30"/>
+      <c r="B19" s="26"/>
       <c r="C19" s="6">
-        <v>2</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="8"/>
+        <v>17</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="F19" s="13"/>
       <c r="G19" s="14"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="10"/>
     </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="38" t="s">
-        <v>10</v>
-      </c>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="30"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="6">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="10"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="30"/>
+    <row r="21" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="30"/>
+      <c r="B21" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="C21" s="6">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
+      <c r="F21" s="8"/>
       <c r="G21" s="14" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="10"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
-      <c r="B22" s="30"/>
+    <row r="22" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="C22" s="6">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="9"/>
+        <v>52</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="G22" s="14"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="10"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="B23" s="30"/>
+    <row r="23" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="30"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="6">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="13"/>
+        <v>29</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="F23" s="13"/>
-      <c r="G23" s="14" t="s">
-        <v>14</v>
-      </c>
+      <c r="G23" s="14"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="10"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="B24" s="30"/>
+    <row r="24" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="34"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="6">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="8"/>
+        <v>55</v>
+      </c>
+      <c r="F24" s="13"/>
       <c r="G24" s="14"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="10"/>
     </row>
-    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="6">
-        <v>6</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="10"/>
-    </row>
-    <row r="26" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
-      <c r="B26" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="6">
-        <v>7</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="J26" s="10"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="6">
-        <v>1</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="10"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="6">
-        <v>2</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="10"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="6">
-        <v>3</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="10"/>
-    </row>
-    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="6">
-        <v>4</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="10"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="6">
-        <v>5</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="10"/>
-    </row>
-    <row r="32" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
-      <c r="B32" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="6">
-        <v>6</v>
-      </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="10"/>
-    </row>
-    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="6">
-        <v>1</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="10"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="32"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="6">
-        <v>2</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="10"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="32"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="6">
-        <v>3</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="10"/>
-    </row>
-    <row r="36" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="32"/>
-      <c r="B36" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="6">
-        <v>4</v>
-      </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="10"/>
-    </row>
-    <row r="37" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="6">
-        <v>1</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="10"/>
-    </row>
-    <row r="38" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="32"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="6">
-        <v>2</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="10"/>
-    </row>
-    <row r="39" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="32"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="6">
-        <v>3</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="10"/>
-    </row>
-    <row r="40" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="32"/>
-      <c r="B40" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="6">
-        <v>4</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="J40" s="10"/>
-    </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="A33:A36"/>
+  <mergeCells count="15">
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B18:B20"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="A11:A17"/>
-    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A3:A8"/>
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
